--- a/sosz17info.xlsx
+++ b/sosz17info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="199">
   <si>
     <t>Entrada</t>
   </si>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t>AVE descuento?</t>
-  </si>
-  <si>
-    <t>Talla camiseta (deleted)</t>
   </si>
   <si>
     <t>NO</t>
@@ -2985,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2998,7 +2995,7 @@
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3017,11 +3014,8 @@
       <c r="F1" t="s">
         <v>195</v>
       </c>
-      <c r="G1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -3032,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3049,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -3069,16 +3063,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -3089,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -3109,16 +3103,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -3129,16 +3123,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -3149,16 +3143,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3169,16 +3163,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -3189,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -3209,16 +3203,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -3229,16 +3223,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3249,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -3269,16 +3263,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3289,16 +3283,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3309,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3329,13 +3323,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3349,13 +3343,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3369,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3389,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3409,13 +3403,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3429,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3449,13 +3443,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3469,13 +3463,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3489,13 +3483,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3509,13 +3503,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3529,13 +3523,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3549,13 +3543,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3569,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3589,13 +3583,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3609,13 +3603,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3629,13 +3623,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3649,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3669,13 +3663,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3689,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3709,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3729,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3749,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3769,13 +3763,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3789,13 +3783,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3809,13 +3803,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3829,13 +3823,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3849,13 +3843,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3869,13 +3863,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3889,13 +3883,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3909,13 +3903,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3929,13 +3923,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3949,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3969,13 +3963,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3989,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4009,13 +4003,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4029,13 +4023,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4049,13 +4043,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4069,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4089,13 +4083,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4109,13 +4103,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4129,13 +4123,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4149,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4169,13 +4163,13 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4189,13 +4183,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4209,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4229,13 +4223,13 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4249,13 +4243,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4269,13 +4263,13 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4289,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4309,13 +4303,13 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4329,13 +4323,13 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4349,13 +4343,13 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4369,13 +4363,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4389,13 +4383,13 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4409,13 +4403,13 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4429,13 +4423,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4449,13 +4443,13 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4469,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4489,13 +4483,13 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4509,13 +4503,13 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4529,13 +4523,13 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4549,13 +4543,13 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4569,13 +4563,13 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4589,13 +4583,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4609,13 +4603,13 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4629,13 +4623,13 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4649,13 +4643,13 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4669,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4689,13 +4683,13 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4709,13 +4703,13 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4729,13 +4723,13 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4749,13 +4743,13 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4769,13 +4763,13 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4789,13 +4783,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4809,13 +4803,13 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4829,13 +4823,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4849,13 +4843,13 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4869,13 +4863,13 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4889,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4909,13 +4903,13 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4929,13 +4923,13 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4949,13 +4943,13 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4969,13 +4963,13 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4989,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5009,13 +5003,13 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5029,13 +5023,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5049,13 +5043,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5069,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5089,13 +5083,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5109,13 +5103,13 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5129,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5149,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5169,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5189,13 +5183,13 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5209,13 +5203,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5229,13 +5223,13 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5249,13 +5243,13 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
